--- a/TaoBao/双汇食品1.xlsx
+++ b/TaoBao/双汇食品1.xlsx
@@ -561,7 +561,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2854</t>
+          <t>2851</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2545</t>
+          <t>2542</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -746,7 +746,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>128</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>429</t>
+          <t>430</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -813,6 +813,16 @@
           <t>https://detail.tmall.com/item.htm?id=626901874604&amp;amp;ns=1&amp;amp;abbucket=16</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>现在下单，预计10月23日送达</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -842,7 +852,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>17起</t>
+          <t>201</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -879,7 +889,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -916,7 +926,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>325</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1057,6 +1067,16 @@
           <t>https://detail.tmall.com/item.htm?id=570634239517&amp;amp;ns=1&amp;amp;abbucket=16</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>现在下单，预计10月23日送达</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1079,6 +1099,16 @@
           <t>https://detail.tmall.com/item.htm?id=623759498092&amp;amp;ns=1&amp;amp;abbucket=16</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1101,6 +1131,16 @@
           <t>https://detail.tmall.com/item.htm?id=624526075063&amp;amp;ns=1&amp;amp;abbucket=16</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1128,6 +1168,16 @@
           <t>https://detail.tmall.com/item.htm?id=597907845211&amp;amp;ns=1&amp;amp;abbucket=16</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>485</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1150,6 +1200,16 @@
           <t>https://detail.tmall.com/item.htm?id=601883664270&amp;amp;ns=1&amp;amp;abbucket=16</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1177,6 +1237,16 @@
           <t>https://detail.tmall.com/item.htm?id=623303952072&amp;amp;ns=1&amp;amp;abbucket=16</t>
         </is>
       </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1204,6 +1274,16 @@
           <t>https://detail.tmall.com/item.htm?id=610481216000&amp;amp;ns=1&amp;amp;abbucket=16</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>现在下单，预计10月23日送达</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1226,6 +1306,16 @@
           <t>https://detail.tmall.com/item.htm?id=600377712695&amp;amp;ns=1&amp;amp;abbucket=16</t>
         </is>
       </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1253,6 +1343,16 @@
           <t>https://detail.tmall.com/item.htm?id=623667629698&amp;amp;ns=1&amp;amp;abbucket=16</t>
         </is>
       </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1275,6 +1375,16 @@
           <t>https://detail.tmall.com/item.htm?id=598637095099&amp;amp;ns=1&amp;amp;abbucket=16</t>
         </is>
       </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1302,6 +1412,16 @@
           <t>https://detail.tmall.com/item.htm?id=542421676084&amp;amp;ns=1&amp;amp;abbucket=16</t>
         </is>
       </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1329,6 +1449,16 @@
           <t>https://detail.tmall.com/item.htm?id=627150511386&amp;amp;ns=1&amp;amp;abbucket=16</t>
         </is>
       </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>现在下单，预计10月23日送达</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1356,6 +1486,16 @@
           <t>https://detail.tmall.com/item.htm?id=621083249322&amp;amp;ns=1&amp;amp;abbucket=16</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1378,6 +1518,16 @@
           <t>https://detail.tmall.com/item.htm?id=623955446787&amp;amp;ns=1&amp;amp;abbucket=16</t>
         </is>
       </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1405,6 +1555,16 @@
           <t>https://detail.tmall.com/item.htm?id=614746931845&amp;amp;ns=1&amp;amp;abbucket=16</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>现在下单，预计10月23日送达</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1427,6 +1587,16 @@
           <t>https://detail.tmall.com/item.htm?id=623677425770&amp;amp;ns=1&amp;amp;abbucket=16</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1454,6 +1624,16 @@
           <t>https://detail.tmall.com/item.htm?id=525519468342&amp;amp;ns=1&amp;amp;abbucket=16</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1481,6 +1661,16 @@
           <t>https://detail.tmall.com/item.htm?id=532827728999&amp;amp;ns=1&amp;amp;abbucket=16</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1508,6 +1698,16 @@
           <t>https://detail.tmall.com/item.htm?id=544513238171&amp;amp;ns=1&amp;amp;abbucket=16</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1530,6 +1730,16 @@
           <t>https://detail.tmall.com/item.htm?id=597985345271&amp;amp;ns=1&amp;amp;abbucket=16</t>
         </is>
       </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1557,6 +1767,16 @@
           <t>https://detail.tmall.com/item.htm?id=601020986709&amp;amp;ns=1&amp;amp;abbucket=16</t>
         </is>
       </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4455</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>现在下单，预计10月23日送达</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1579,6 +1799,16 @@
           <t>https://detail.tmall.com/item.htm?id=612239313531&amp;amp;ns=1&amp;amp;abbucket=16</t>
         </is>
       </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1601,6 +1831,16 @@
           <t>https://detail.tmall.com/item.htm?id=625704172895&amp;amp;ns=1&amp;amp;abbucket=16</t>
         </is>
       </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1623,6 +1863,16 @@
           <t>https://detail.tmall.com/item.htm?id=626297734749&amp;amp;ns=1&amp;amp;abbucket=16</t>
         </is>
       </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1650,6 +1900,16 @@
           <t>https://detail.tmall.com/item.htm?id=568421193707&amp;amp;ns=1&amp;amp;abbucket=16</t>
         </is>
       </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1672,6 +1932,16 @@
           <t>https://detail.tmall.com/item.htm?id=623610749206&amp;amp;ns=1&amp;amp;abbucket=16</t>
         </is>
       </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1694,6 +1964,16 @@
           <t>https://detail.tmall.com/item.htm?id=569702551864&amp;amp;ns=1&amp;amp;abbucket=16</t>
         </is>
       </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1716,6 +1996,16 @@
           <t>https://detail.tmall.com/item.htm?id=597838373052&amp;amp;ns=1&amp;amp;abbucket=16</t>
         </is>
       </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1743,6 +2033,16 @@
           <t>https://detail.tmall.com/item.htm?id=624526075063&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1765,6 +2065,16 @@
           <t>https://detail.tmall.com/item.htm?id=597838373052&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1792,6 +2102,16 @@
           <t>https://detail.tmall.com/item.htm?id=532827728999&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1819,6 +2139,16 @@
           <t>https://detail.tmall.com/item.htm?id=570331124463&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1841,6 +2171,16 @@
           <t>https://detail.tmall.com/item.htm?id=626396634843&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1863,6 +2203,16 @@
           <t>https://detail.tmall.com/item.htm?id=623677333917&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1890,6 +2240,16 @@
           <t>https://detail.tmall.com/item.htm?id=626901874604&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1912,6 +2272,16 @@
           <t>https://detail.tmall.com/item.htm?id=595879167938&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1939,6 +2309,16 @@
           <t>https://detail.tmall.com/item.htm?id=612324077765&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1966,6 +2346,16 @@
           <t>https://detail.tmall.com/item.htm?id=595287680871&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1988,6 +2378,16 @@
           <t>https://detail.tmall.com/item.htm?id=623677425770&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2010,6 +2410,16 @@
           <t>https://detail.tmall.com/item.htm?id=597985345271&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2037,6 +2447,16 @@
           <t>https://detail.tmall.com/item.htm?id=618569913447&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2064,6 +2484,16 @@
           <t>https://detail.tmall.com/item.htm?id=614746931845&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2091,6 +2521,16 @@
           <t>https://detail.tmall.com/item.htm?id=45350619382&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2118,6 +2558,16 @@
           <t>https://detail.tmall.com/item.htm?id=587691231034&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2145,6 +2595,16 @@
           <t>https://detail.tmall.com/item.htm?id=552034948142&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2172,6 +2632,16 @@
           <t>https://detail.tmall.com/item.htm?id=43507051750&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -2199,6 +2669,16 @@
           <t>https://detail.tmall.com/item.htm?id=564358167878&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -2221,6 +2701,16 @@
           <t>https://detail.tmall.com/item.htm?id=620638393068&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2248,6 +2738,16 @@
           <t>https://detail.tmall.com/item.htm?id=565334604849&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2275,6 +2775,16 @@
           <t>https://detail.tmall.com/item.htm?id=556229290350&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2302,6 +2812,16 @@
           <t>https://detail.tmall.com/item.htm?id=531172098357&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2329,6 +2849,16 @@
           <t>https://detail.tmall.com/item.htm?id=599432537064&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2351,6 +2881,16 @@
           <t>https://detail.tmall.com/item.htm?id=598073168226&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2378,6 +2918,16 @@
           <t>https://detail.tmall.com/item.htm?id=570921628176&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2405,6 +2955,16 @@
           <t>https://detail.tmall.com/item.htm?id=598115859524&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2432,6 +2992,16 @@
           <t>https://detail.tmall.com/item.htm?id=616641579757&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2459,6 +3029,16 @@
           <t>https://detail.tmall.com/item.htm?id=617965656310&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2481,6 +3061,16 @@
           <t>https://detail.tmall.com/item.htm?id=624116026982&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2508,6 +3098,16 @@
           <t>https://detail.tmall.com/item.htm?id=576867550765&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2535,6 +3135,16 @@
           <t>https://detail.tmall.com/item.htm?id=618317481552&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2562,6 +3172,16 @@
           <t>https://detail.tmall.com/item.htm?id=538410288263&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2589,6 +3209,16 @@
           <t>https://detail.tmall.com/item.htm?id=610656886049&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2616,6 +3246,16 @@
           <t>https://detail.tmall.com/item.htm?id=604901084842&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2638,6 +3278,16 @@
           <t>https://detail.tmall.com/item.htm?id=582407504608&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2665,6 +3315,16 @@
           <t>https://detail.tmall.com/item.htm?id=614079438751&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2692,6 +3352,16 @@
           <t>https://detail.tmall.com/item.htm?id=620150631342&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2719,6 +3389,16 @@
           <t>https://detail.tmall.com/item.htm?id=588494337771&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2741,6 +3421,16 @@
           <t>https://detail.tmall.com/item.htm?id=603034572339&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2768,6 +3458,16 @@
           <t>https://detail.tmall.com/item.htm?id=542466565735&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2795,6 +3495,16 @@
           <t>https://detail.tmall.com/item.htm?id=531979970242&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2822,6 +3532,16 @@
           <t>https://detail.tmall.com/item.htm?id=618061480773&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2844,6 +3564,16 @@
           <t>https://detail.tmall.com/item.htm?id=624476904645&amp;amp;ns=1&amp;amp;abbucket=8</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3506</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2871,6 +3601,16 @@
           <t>https://detail.tmall.com/item.htm?id=625120694442&amp;amp;ns=1&amp;amp;abbucket=18</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2898,6 +3638,16 @@
           <t>https://detail.tmall.com/item.htm?id=568787444905&amp;amp;ns=1&amp;amp;abbucket=18</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2925,6 +3675,16 @@
           <t>https://detail.tmall.com/item.htm?id=570887179385&amp;amp;ns=1&amp;amp;abbucket=18</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2952,6 +3712,16 @@
           <t>https://detail.tmall.com/item.htm?id=614043836867&amp;amp;ns=1&amp;amp;abbucket=18</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2979,6 +3749,16 @@
           <t>https://detail.tmall.com/item.htm?id=538410288263&amp;amp;ns=1&amp;amp;abbucket=18</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -3006,6 +3786,16 @@
           <t>https://detail.tmall.com/item.htm?id=607761561893&amp;amp;ns=1&amp;amp;abbucket=18</t>
         </is>
       </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3033,6 +3823,16 @@
           <t>https://detail.tmall.com/item.htm?id=587185408379&amp;amp;ns=1&amp;amp;abbucket=18</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -3060,6 +3860,16 @@
           <t>https://detail.tmall.com/item.htm?id=574951736098&amp;amp;ns=1&amp;amp;abbucket=18</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -3087,6 +3897,16 @@
           <t>https://detail.tmall.com/item.htm?id=620979993655&amp;amp;ns=1&amp;amp;abbucket=18</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -3114,6 +3934,16 @@
           <t>https://detail.tmall.com/item.htm?id=610656886049&amp;amp;ns=1&amp;amp;abbucket=18</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -3141,6 +3971,16 @@
           <t>https://detail.tmall.com/item.htm?id=615685275935&amp;amp;ns=1&amp;amp;abbucket=18</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -3168,6 +4008,16 @@
           <t>https://detail.tmall.com/item.htm?id=598339841191&amp;amp;ns=1&amp;amp;abbucket=18</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -3195,6 +4045,16 @@
           <t>https://detail.tmall.com/item.htm?id=626353742468&amp;amp;ns=1&amp;amp;abbucket=18</t>
         </is>
       </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -3222,6 +4082,16 @@
           <t>https://detail.tmall.com/item.htm?id=598565158554&amp;amp;ns=1&amp;amp;abbucket=18</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -3249,6 +4119,16 @@
           <t>https://detail.tmall.com/item.htm?id=622924360175&amp;amp;ns=1&amp;amp;abbucket=18</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -3276,6 +4156,16 @@
           <t>https://detail.tmall.com/item.htm?id=616468349165&amp;amp;ns=1&amp;amp;abbucket=18</t>
         </is>
       </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3303,6 +4193,16 @@
           <t>https://detail.tmall.com/item.htm?id=614051980198&amp;amp;ns=1&amp;amp;abbucket=18</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3330,6 +4230,16 @@
           <t>https://detail.tmall.com/item.htm?id=620746754714&amp;amp;ns=1&amp;amp;abbucket=18</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3357,6 +4267,16 @@
           <t>https://detail.tmall.com/item.htm?id=598056042870&amp;amp;ns=1&amp;amp;abbucket=18</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3384,6 +4304,16 @@
           <t>https://detail.tmall.com/item.htm?id=629641162526&amp;amp;ns=1&amp;amp;abbucket=18</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3409,6 +4339,16 @@
       <c r="E110" t="inlineStr">
         <is>
           <t>https://detail.tmall.com/item.htm?id=618641448284&amp;amp;ns=1&amp;amp;abbucket=18</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>没有显示配送时间</t>
         </is>
       </c>
     </row>
